--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Saunders.Spring.021020-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Saunders.Spring.021020-2.xlsx_with_dialog_acts.xlsx
@@ -555,12 +555,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1399,12 +1399,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1567,12 +1567,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2323,12 +2323,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2491,12 +2491,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2827,12 +2827,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3289,12 +3289,12 @@
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4141,12 +4141,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4225,12 +4225,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4775,12 +4775,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5283,12 +5283,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5367,12 +5367,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5493,12 +5493,12 @@
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5535,12 +5535,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5829,12 +5829,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5871,12 +5871,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7175,12 +7175,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7385,12 +7385,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7809,12 +7809,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8195,12 +8195,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8241,12 +8241,12 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8283,12 +8283,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8325,12 +8325,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8535,12 +8535,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8577,12 +8577,12 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8665,12 +8665,12 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8959,12 +8959,12 @@
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9127,12 +9127,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9211,12 +9211,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9965,12 +9965,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11233,12 +11233,12 @@
       <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11485,12 +11485,12 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12115,12 +12115,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12245,12 +12245,12 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12287,12 +12287,12 @@
       <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12329,12 +12329,12 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13757,12 +13757,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14135,12 +14135,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14345,12 +14345,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14471,12 +14471,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14723,12 +14723,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14891,12 +14891,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15395,12 +15395,12 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15689,12 +15689,12 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16067,12 +16067,12 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16109,12 +16109,12 @@
       </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16193,12 +16193,12 @@
       <c r="H374" t="inlineStr"/>
       <c r="I374" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J374" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16235,12 +16235,12 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16361,12 +16361,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17545,12 +17545,12 @@
       <c r="H406" t="inlineStr"/>
       <c r="I406" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
